--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>224616.8668438405</v>
+        <v>221737.3537702058</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8626242.131105008</v>
+        <v>8626242.131105004</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.6085818809312</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>328.4378163475058</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>245.5806908145144</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>39.07258834110965</v>
+        <v>234.2559520454602</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>176.2802710788528</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>246.795623832921</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>230.8865837051443</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>149.6058004679898</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>215.3567741196991</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>213.8524658611811</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>54.70678535262241</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229299</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1582,19 +1582,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>19.58892404673146</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>69.60662835550809</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>25.73078664919381</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>74.7576914549245</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S19" t="n">
-        <v>129.0698687939112</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>126.095523708391</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2293,7 +2293,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>144.7268717888065</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>54.456022205514</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>81.37259901118502</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.313812950980878</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S28" t="n">
         <v>181.3384883584591</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.6125906008201</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T29" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U29" t="n">
         <v>250.9088959876463</v>
@@ -2886,7 +2886,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561467</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>84.56702400646616</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S31" t="n">
-        <v>17.91582343698969</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H32" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T32" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3123,7 +3123,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T33" t="n">
         <v>188.3907690366107</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>91.23885045891498</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>83.55410938282819</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108344</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S34" t="n">
-        <v>181.3384883584589</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1233.603060210037</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>539.1643278732605</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2118.024899821607</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1744.559141560527</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1354.419809584715</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,10 +4422,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>444.956380927603</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>190.2718927217162</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1738.858660051663</v>
+        <v>847.8148076117927</v>
       </c>
       <c r="C5" t="n">
-        <v>1369.896143111252</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X5" t="n">
-        <v>1738.858660051663</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y5" t="n">
-        <v>1738.858660051663</v>
+        <v>1234.414647675914</v>
       </c>
     </row>
     <row r="6">
@@ -4650,7 +4650,7 @@
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>494.9102127870965</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>494.9102127870965</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>494.9102127870965</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>494.9102127870965</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V7" t="n">
-        <v>494.9102127870965</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>494.9102127870965</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>494.9102127870965</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>494.9102127870965</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.4755035807</v>
+        <v>1778.063616086466</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>1778.063616086466</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>1419.797917479716</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>1034.009664881472</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>623.0237600918642</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>205.0599519900511</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642691</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791254</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332394</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332394</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970486</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626915</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>1936.146930626915</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.614835556512</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="Y8" t="n">
-        <v>1328.4755035807</v>
+        <v>1778.063616086466</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036449</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614631</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014718</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035062</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064349</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064349</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610028</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V10" t="n">
-        <v>222.942782082032</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="W10" t="n">
-        <v>222.942782082032</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X10" t="n">
-        <v>222.942782082032</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>721.6132334414665</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1172.647446689875</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2151.197749519704</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3130.950021746351</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075805</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5109,22 +5109,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320241</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.8431224204016</v>
+        <v>411.3871648742104</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9069394924948</v>
+        <v>242.4509819463035</v>
       </c>
       <c r="D13" t="n">
-        <v>633.9069394924948</v>
+        <v>242.4509819463035</v>
       </c>
       <c r="E13" t="n">
-        <v>485.9938459101016</v>
+        <v>242.4509819463035</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1453.060509258584</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.273717292189</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.273717292189</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.284166394172</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.4915872506414</v>
+        <v>411.3871648742104</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5282,19 +5282,19 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867999</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3783.446538019154</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5306,16 +5306,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,22 +5385,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>973.7726509601081</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>804.8364680322012</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1738.666888346486</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1738.666888346486</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1483.982400140599</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1194.565230103638</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>1194.565230103638</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>973.7726509601081</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="17">
@@ -5495,46 +5495,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176198</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366029</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195858</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2762.028521254641</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3641.993171584096</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5595,22 +5595,22 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320232</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5625,7 +5625,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>973.7726509601081</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>804.8364680322012</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5674,16 +5674,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1825.969861262369</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T19" t="n">
-        <v>1604.203245831895</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U19" t="n">
-        <v>1604.203245831895</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1604.203245831895</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W19" t="n">
-        <v>1604.203245831895</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X19" t="n">
-        <v>1376.213694933878</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y19" t="n">
-        <v>1155.421115790348</v>
+        <v>171.0738540998333</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5759,19 +5759,19 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,16 +5859,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>391.866433243363</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>222.930250315456</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>222.930250315456</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>222.930250315456</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5990,25 +5990,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>818.2062848686776</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1682.725100522032</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6072,7 +6072,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>876.4469737784534</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C25" t="n">
-        <v>707.5107908505465</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D25" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1709.651498895657</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1420.548632021301</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1165.864143815414</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>876.4469737784534</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>876.4469737784534</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y25" t="n">
-        <v>876.4469737784534</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="26">
@@ -6227,10 +6227,10 @@
         <v>373.3442236507186</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074383984</v>
+        <v>893.7741287892195</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944171</v>
+        <v>1513.293909294992</v>
       </c>
       <c r="M26" t="n">
         <v>2234.298471234026</v>
@@ -6312,19 +6312,19 @@
         <v>915.0894235587139</v>
       </c>
       <c r="M27" t="n">
-        <v>1507.107777810839</v>
+        <v>915.0894235587139</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.203741210173</v>
+        <v>1537.185386958048</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.812354695767</v>
+        <v>1868.341358050537</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695767</v>
+        <v>2287.924876476611</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695767</v>
+        <v>2518.486150461857</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695767</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>557.5875721598175</v>
+        <v>495.0957149475921</v>
       </c>
       <c r="C28" t="n">
-        <v>388.6513892319105</v>
+        <v>326.1595320196852</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6513892319105</v>
+        <v>176.0428926073495</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7382956495174</v>
+        <v>176.0428926073495</v>
       </c>
       <c r="F28" t="n">
-        <v>93.84834815160706</v>
+        <v>176.0428926073495</v>
       </c>
       <c r="G28" t="n">
         <v>93.84834815160706</v>
@@ -6406,28 +6406,28 @@
         <v>2429.412499335687</v>
       </c>
       <c r="R28" t="n">
-        <v>2424.045011506413</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S28" t="n">
-        <v>2240.874821245343</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T28" t="n">
-        <v>2021.196038959725</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="U28" t="n">
-        <v>1732.119825274452</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.435337068565</v>
+        <v>1414.94347985634</v>
       </c>
       <c r="W28" t="n">
-        <v>1188.018167031605</v>
+        <v>1125.526309819379</v>
       </c>
       <c r="X28" t="n">
-        <v>960.0286161335873</v>
+        <v>897.536758921362</v>
       </c>
       <c r="Y28" t="n">
-        <v>739.2360369900572</v>
+        <v>676.7441797778318</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D29" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.03297828421</v>
       </c>
       <c r="E29" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963575</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127636</v>
+        <v>380.2757138127637</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160761</v>
+        <v>93.84834815160771</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160706</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507183</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074383975</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944169</v>
+        <v>1462.494387944171</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883203</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.783927800305</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.64596425944</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P29" t="n">
         <v>4202.751434297611</v>
@@ -6488,25 +6488,25 @@
         <v>4692.417407580353</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.84834815160706</v>
       </c>
       <c r="J30" t="n">
-        <v>241.496329903452</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K30" t="n">
-        <v>302.089229200368</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="L30" t="n">
-        <v>792.8215620441169</v>
+        <v>732.2286627472016</v>
       </c>
       <c r="M30" t="n">
-        <v>1384.839916296242</v>
+        <v>732.2286627472016</v>
       </c>
       <c r="N30" t="n">
-        <v>2006.935879695575</v>
+        <v>1354.324626146536</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.812354695767</v>
+        <v>1901.201101146728</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.812354695767</v>
+        <v>2320.784619572802</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695767</v>
+        <v>2518.486150461857</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695767</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.028458899664</v>
+        <v>495.0957149475921</v>
       </c>
       <c r="C31" t="n">
-        <v>559.0922759717571</v>
+        <v>326.1595320196852</v>
       </c>
       <c r="D31" t="n">
-        <v>408.9756365594213</v>
+        <v>326.1595320196852</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0625429770282</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0625429770282</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="G31" t="n">
         <v>93.84834815160706</v>
@@ -6619,52 +6619,52 @@
         <v>93.84834815160706</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411603</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117229</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948558</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M31" t="n">
         <v>1239.450608139314</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931019</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946048</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.699365782251</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335685</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335685</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S31" t="n">
-        <v>2411.31570798519</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T31" t="n">
-        <v>2191.636925699572</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="U31" t="n">
-        <v>1902.560712014299</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.876223808412</v>
+        <v>1414.94347985634</v>
       </c>
       <c r="W31" t="n">
-        <v>1358.459053771451</v>
+        <v>1125.526309819379</v>
       </c>
       <c r="X31" t="n">
-        <v>1130.469502873434</v>
+        <v>897.536758921362</v>
       </c>
       <c r="Y31" t="n">
-        <v>909.6769237299037</v>
+        <v>676.7441797778318</v>
       </c>
     </row>
     <row r="32">
@@ -6689,43 +6689,43 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127636</v>
       </c>
       <c r="H32" t="n">
+        <v>93.84834815160777</v>
+      </c>
+      <c r="I32" t="n">
         <v>93.84834815160706</v>
       </c>
-      <c r="I32" t="n">
-        <v>93.84834815160703</v>
-      </c>
       <c r="J32" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944171</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259444</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.95191294679</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052795</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6753,61 +6753,61 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C33" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D33" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E33" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F33" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G33" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J33" t="n">
-        <v>241.4963299034533</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="K33" t="n">
-        <v>302.0892292003537</v>
+        <v>424.3570907149644</v>
       </c>
       <c r="L33" t="n">
-        <v>792.8215620441057</v>
+        <v>915.0894235587139</v>
       </c>
       <c r="M33" t="n">
-        <v>1384.839916296234</v>
+        <v>915.0894235587139</v>
       </c>
       <c r="N33" t="n">
-        <v>2006.935879695571</v>
+        <v>1537.185386958048</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050537</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476611</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461857</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S33" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U33" t="n">
         <v>2016.877442379908</v>
@@ -6819,7 +6819,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y33" t="n">
         <v>1111.876178449477</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>495.0957149476028</v>
+        <v>495.0957149475921</v>
       </c>
       <c r="C34" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196852</v>
       </c>
       <c r="D34" t="n">
-        <v>402.9352599385978</v>
+        <v>241.7614417340002</v>
       </c>
       <c r="E34" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="F34" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="G34" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R34" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S34" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T34" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="U34" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V34" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.94347985634</v>
       </c>
       <c r="W34" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819379</v>
       </c>
       <c r="X34" t="n">
-        <v>897.5367589213727</v>
+        <v>897.536758921362</v>
       </c>
       <c r="Y34" t="n">
-        <v>676.7441797778425</v>
+        <v>676.7441797778318</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6932,7 +6932,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
@@ -6965,10 +6965,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,16 +7075,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,22 +7257,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7366,16 +7366,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,7 +7427,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7500,16 +7500,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,16 +7549,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.421860962789</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270185</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992653</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>104.3976710547477</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8930,22 +8930,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>315.1679217109319</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>83.1672211894936</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9164,28 +9164,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>226.0494095077332</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,22 +9407,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>420.2833968404722</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,28 +9638,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>201.9664098701124</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>388.4310778980899</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>51.31264782911234</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>51.31264782911217</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10124,10 +10124,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>51.31264782911228</v>
       </c>
       <c r="P29" t="n">
-        <v>51.31264782911717</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>51.31264782908238</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>51.31264782911214</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>85.34635367328917</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>103.6602779028986</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>15.54122283965562</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>232.5487192770966</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>148.9780249965867</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819346</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>193.8181626269754</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.0742887270128</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>60.69915653753071</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>19.32552431454025</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>35.10510839313082</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>165.0929270706552</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>84.16945386598191</v>
       </c>
       <c r="H28" t="n">
         <v>140.453989791954</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>61.86693864010303</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>61.86693864010302</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
         <v>140.453989791954</v>
       </c>
       <c r="I31" t="n">
-        <v>81.8045767444093</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108398</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>163.4226649214694</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>76.00797063971285</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>65.06136363538417</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>345435.9249908655</v>
+        <v>345435.9249908656</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="E2" t="n">
-        <v>337519.5188539355</v>
+        <v>337519.5188539356</v>
       </c>
       <c r="F2" t="n">
         <v>337519.5188539356</v>
       </c>
       <c r="G2" t="n">
-        <v>337519.5188539358</v>
+        <v>337519.5188539359</v>
       </c>
       <c r="H2" t="n">
-        <v>337519.5188539357</v>
+        <v>337519.5188539359</v>
       </c>
       <c r="I2" t="n">
-        <v>337519.5188539357</v>
+        <v>337519.5188539359</v>
       </c>
       <c r="J2" t="n">
+        <v>342840.2652753876</v>
+      </c>
+      <c r="K2" t="n">
         <v>342840.2652753874</v>
       </c>
-      <c r="K2" t="n">
-        <v>342840.2652753876</v>
-      </c>
       <c r="L2" t="n">
-        <v>342840.2652753879</v>
+        <v>342840.2652753875</v>
       </c>
       <c r="M2" t="n">
+        <v>343037.304868253</v>
+      </c>
+      <c r="N2" t="n">
         <v>343037.3048682526</v>
-      </c>
-      <c r="N2" t="n">
-        <v>343037.3048682529</v>
       </c>
       <c r="O2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682529</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934063</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.714936039817986e-09</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>136530.2358202845</v>
+        <v>136530.2358202885</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196354.9023835022</v>
+        <v>196354.9023835024</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,37 +26424,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
+        <v>25090.72367499378</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="I4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="H4" t="n">
-        <v>25090.7236749938</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25090.72367499382</v>
-      </c>
       <c r="J4" t="n">
+        <v>5781.971894855414</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5781.971894855413</v>
+      </c>
+      <c r="L4" t="n">
         <v>5781.971894855411</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5781.97189485548</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5781.971894854996</v>
       </c>
       <c r="M4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670445</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670458</v>
+        <v>5067.592601670462</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.0780634095</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26482,7 +26482,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
@@ -26497,7 +26497,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-523745.9346705906</v>
+        <v>-523766.5630658934</v>
       </c>
       <c r="C6" t="n">
         <v>65019.16820117956</v>
       </c>
       <c r="D6" t="n">
-        <v>65019.16820117888</v>
+        <v>65019.16820117948</v>
       </c>
       <c r="E6" t="n">
-        <v>-511332.1370681783</v>
+        <v>-511399.3325584044</v>
       </c>
       <c r="F6" t="n">
-        <v>216045.2769252281</v>
+        <v>215978.0814350023</v>
       </c>
       <c r="G6" t="n">
-        <v>216045.2769252283</v>
+        <v>215978.0814350023</v>
       </c>
       <c r="H6" t="n">
-        <v>216045.2769252282</v>
+        <v>215978.0814350029</v>
       </c>
       <c r="I6" t="n">
-        <v>216045.2769252282</v>
+        <v>215978.0814350026</v>
       </c>
       <c r="J6" t="n">
-        <v>-133153.0894636653</v>
+        <v>-133188.9864455295</v>
       </c>
       <c r="K6" t="n">
-        <v>236128.2539232943</v>
+        <v>236092.3569414292</v>
       </c>
       <c r="L6" t="n">
-        <v>236128.2539232897</v>
+        <v>236092.3569414293</v>
       </c>
       <c r="M6" t="n">
-        <v>100316.9466223905</v>
+        <v>100282.2086969513</v>
       </c>
       <c r="N6" t="n">
-        <v>236847.1824426754</v>
+        <v>236812.4445172393</v>
       </c>
       <c r="O6" t="n">
-        <v>236847.1824426751</v>
+        <v>236812.4445172393</v>
       </c>
       <c r="P6" t="n">
-        <v>236847.1824426752</v>
+        <v>236812.4445172396</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26762,10 +26762,10 @@
         <v>1358.041048716382</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716381</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="M3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>712.0330363762116</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>712.0330363762113</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26987,10 +26987,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.59383658785373e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.934451625286556</v>
+        <v>9.93445162529224</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503742</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503742</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.1252597825493</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>247.2092859008681</v>
+        <v>52.02592219651748</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>210.1684325493815</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>178.4027705418302</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>80.95663463721388</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853701</v>
@@ -27822,16 +27822,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>21.25105961868368</v>
+        <v>83.12091415361559</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>174.3169722963674</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481161</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>154.37432655877</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853695</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>38.28517746264691</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>231.8162129839686</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.733694752047692e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -30460,73 +30460,73 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.647164540537</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633807</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647356</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141117</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188923</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396484</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034987</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078618</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175854</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383809</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678014</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315614</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I17" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J18" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138783</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32792,7 +32792,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33032,22 +33032,22 @@
         <v>634.2436048745706</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504278</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>759.7214730927615</v>
       </c>
       <c r="O27" t="n">
-        <v>571.4938338238319</v>
+        <v>477.0972253459486</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436708</v>
       </c>
       <c r="S27" t="n">
         <v>54.25758340862144</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377406</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122262</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704051</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874047</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K29" t="n">
-        <v>694.4639760830404</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364232</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293272</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229572</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086917</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687494</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148584</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R29" t="n">
-        <v>342.942898598715</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854252</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T29" t="n">
-        <v>23.8987927266571</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4367569201901924</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540894</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H30" t="n">
-        <v>28.2113810308818</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>275.9770021735807</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K30" t="n">
-        <v>199.0463877591226</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745701</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504274</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927609</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426179</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>339.680290135572</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436708</v>
       </c>
       <c r="S30" t="n">
-        <v>54.2575834086214</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821088</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013747</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291834</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H31" t="n">
-        <v>21.77318271548559</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284898</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273326</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900875</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640605</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265007</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N31" t="n">
-        <v>374.752540541686</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465949</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282413</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561735</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R31" t="n">
-        <v>110.1126397860855</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851312</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T31" t="n">
-        <v>10.46359496551965</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704638</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J32" t="n">
-        <v>463.364970687407</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687533</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H33" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>275.9770021735821</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>199.0463877591069</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504309</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426213</v>
+        <v>477.0972253459486</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436708</v>
       </c>
       <c r="S33" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H34" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265026</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R34" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T34" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33977,16 +33977,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>282.8216163968503</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34220,10 +34220,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>536.8001439125376</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.222741532893</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873158</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>441.5889576101482</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>581.9206576708328</v>
       </c>
       <c r="O11" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35650,22 +35650,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>867.4697571238434</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>481.9292074088655</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509648</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>624.8113957271053</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340041</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,22 +36127,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>959.2045126706989</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>539.1576964255129</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>940.7329133110014</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>282.3190661607188</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380603</v>
+        <v>525.6867728671726</v>
       </c>
       <c r="L26" t="n">
         <v>625.7775560664365</v>
       </c>
       <c r="M26" t="n">
-        <v>779.6000841311674</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N26" t="n">
         <v>744.7323009263669</v>
@@ -36680,22 +36680,22 @@
         <v>495.6892250946964</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284094</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>628.3797610094282</v>
       </c>
       <c r="O27" t="n">
-        <v>428.8975893793875</v>
+        <v>334.5009809015042</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.68303457970686</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607184</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380598</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664359</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020545</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N29" t="n">
-        <v>744.7323009263662</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O29" t="n">
-        <v>689.759632787005</v>
+        <v>741.072280616118</v>
       </c>
       <c r="P29" t="n">
-        <v>605.157040442597</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404089</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845829</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>149.139375506914</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K30" t="n">
-        <v>61.20494878476365</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946959</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M30" t="n">
-        <v>597.998337628409</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094276</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981735</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>199.6985160495505</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.68303457970686</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211065984</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642047</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L31" t="n">
-        <v>391.6786041243766</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883413</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209146</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606346</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931348</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044791</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N32" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O32" t="n">
-        <v>741.0722806160918</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136952</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>149.1393755069154</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>61.20494878474792</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L33" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284126</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981769</v>
+        <v>334.5009809015042</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.68303457970686</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6786041243784</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931362</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>140.6875824748321</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37868,10 +37868,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>394.6661099905193</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
